--- a/CBB_Prescout/opp_url.xlsx
+++ b/CBB_Prescout/opp_url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Scouting\prescout\Prescout\CBB_Prescout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727969D-45FA-4177-96AE-02C1D13AEA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594B792-CEC4-497A-8839-A835A4AF4E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>opponent</t>
   </si>
@@ -33,22 +33,16 @@
     <t>SRurl</t>
   </si>
   <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>VCU</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>https://www.sports-reference.com/cbb/schools/texas-am/2022.html</t>
-  </si>
-  <si>
-    <t>https://www.sports-reference.com/cbb/schools/wake-forest/2022.html</t>
-  </si>
-  <si>
-    <t>https://www.sports-reference.com/cbb/schools/virginia-commonwealth/2022.html</t>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/houston/2023.html</t>
+  </si>
+  <si>
+    <t>UCONN</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/connecticut/2023.html</t>
   </si>
 </sst>
 </file>
@@ -366,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,23 +385,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CBB_Prescout/opp_url.xlsx
+++ b/CBB_Prescout/opp_url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Scouting\prescout\Prescout\CBB_Prescout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2594B792-CEC4-497A-8839-A835A4AF4E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B435C2C-2019-4464-92E6-C910D892D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7480" yWindow="2190" windowWidth="10800" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>https://www.sports-reference.com/cbb/schools/houston/2023.html</t>
   </si>
   <si>
-    <t>UCONN</t>
-  </si>
-  <si>
     <t>https://www.sports-reference.com/cbb/schools/connecticut/2023.html</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -390,10 +390,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CBB_Prescout/opp_url.xlsx
+++ b/CBB_Prescout/opp_url.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Scouting\prescout\Prescout\CBB_Prescout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B435C2C-2019-4464-92E6-C910D892D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210FDBF-B4B7-48A0-8A10-1BD2D03A9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2190" windowWidth="10800" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>opponent</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/alabama/2023.html</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/michigan-state/2023.html</t>
   </si>
 </sst>
 </file>
@@ -360,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -396,6 +408,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CBB_Prescout/opp_url.xlsx
+++ b/CBB_Prescout/opp_url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Scouting\prescout\Prescout\CBB_Prescout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210FDBF-B4B7-48A0-8A10-1BD2D03A9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D4C60-F950-4C41-BFC7-FF6514853D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>opponent</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>https://www.sports-reference.com/cbb/schools/michigan-state/2023.html</t>
+  </si>
+  <si>
+    <t>Washington State</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/washington-state/2023.html</t>
+  </si>
+  <si>
+    <t>https://www.sports-reference.com/cbb/schools/ucla/2023.html</t>
   </si>
 </sst>
 </file>
@@ -372,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,6 +436,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CBB_Prescout/opp_url.xlsx
+++ b/CBB_Prescout/opp_url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\Scouting\prescout\Prescout\CBB_Prescout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346D4C60-F950-4C41-BFC7-FF6514853D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF2462-F9F2-4AC7-B620-A5E3974B1432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>https://www.sports-reference.com/cbb/schools/connecticut/2023.html</t>
   </si>
   <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>https://www.sports-reference.com/cbb/schools/ucla/2023.html</t>
+  </si>
+  <si>
+    <t>UCONN</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +414,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -422,34 +422,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
